--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/运输仓储邮政、信息传输、计算机服务和软件业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/运输仓储邮政、信息传输、计算机服务和软件业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,553 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700366.4</v>
+        <v>8831213.2465044</v>
       </c>
       <c r="C2" t="n">
-        <v>772984.732</v>
+        <v>17162196.3741215</v>
       </c>
       <c r="D2" t="n">
-        <v>126774.34</v>
+        <v>11463047.4512121</v>
       </c>
       <c r="E2" t="n">
-        <v>1426581</v>
+        <v>9386463.54252704</v>
       </c>
       <c r="F2" t="n">
-        <v>2081578</v>
+        <v>2889553.57883848</v>
       </c>
       <c r="G2" t="n">
-        <v>3845842.1</v>
+        <v>18591085.9326516</v>
       </c>
       <c r="H2" t="n">
-        <v>2097770</v>
+        <v>23534924.3670249</v>
       </c>
       <c r="I2" t="n">
-        <v>17182136.47</v>
+        <v>75779844.8372442</v>
       </c>
       <c r="J2" t="n">
-        <v>11542863.6</v>
+        <v>90207336.8543497</v>
       </c>
       <c r="K2" t="n">
-        <v>2520127</v>
+        <v>11218001.9933007</v>
       </c>
       <c r="L2" t="n">
-        <v>555077.1</v>
+        <v>4502406.88036279</v>
       </c>
       <c r="M2" t="n">
-        <v>51245687.263</v>
+        <v>378202315.471045</v>
       </c>
       <c r="N2" t="n">
-        <v>22579368.4224762</v>
+        <v>104106145.574784</v>
       </c>
       <c r="O2" t="n">
-        <v>19920751.9395261</v>
+        <v>57375756.1209184</v>
       </c>
       <c r="P2" t="n">
-        <v>54462291.4667909</v>
+        <v>283141352.715529</v>
       </c>
       <c r="Q2" t="n">
-        <v>105707978.729791</v>
+        <v>661343668.186574</v>
       </c>
       <c r="R2" t="n">
-        <v>4130580.23</v>
+        <v>59453606.343564</v>
       </c>
       <c r="S2" t="n">
-        <v>3381508.62448572</v>
+        <v>22632647.4705041</v>
       </c>
       <c r="T2" t="n">
-        <v>8580662.48030282</v>
+        <v>99026803.5493221</v>
       </c>
       <c r="U2" t="n">
-        <v>388500.391</v>
+        <v>2393010.64483581</v>
       </c>
       <c r="V2" t="n">
-        <v>526231.5</v>
+        <v>5495407.08676304</v>
       </c>
       <c r="W2" t="n">
-        <v>1617536</v>
+        <v>31965144.1112881</v>
       </c>
       <c r="X2" t="n">
-        <v>247507.4</v>
+        <v>1107051.50734572</v>
       </c>
       <c r="Y2" t="n">
-        <v>483231</v>
+        <v>4222020.71911074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1442645.80937563</v>
+        <v>12206073.8782695</v>
       </c>
       <c r="C3" t="n">
-        <v>1404093.24341811</v>
+        <v>20189511.7173354</v>
       </c>
       <c r="D3" t="n">
-        <v>1316764.23965889</v>
+        <v>8469781.90628293</v>
       </c>
       <c r="E3" t="n">
-        <v>1372514.04494536</v>
+        <v>9867406.43889017</v>
       </c>
       <c r="F3" t="n">
-        <v>1961900.18090857</v>
+        <v>5971732.48040487</v>
       </c>
       <c r="G3" t="n">
-        <v>3046149.54912217</v>
+        <v>26867495.5710789</v>
       </c>
       <c r="H3" t="n">
-        <v>4253101.00107497</v>
+        <v>29892261.3745437</v>
       </c>
       <c r="I3" t="n">
-        <v>14442298.930436</v>
+        <v>94154491.5683931</v>
       </c>
       <c r="J3" t="n">
-        <v>18079700.9438263</v>
+        <v>97820235.2397445</v>
       </c>
       <c r="K3" t="n">
-        <v>2104394.80113531</v>
+        <v>9589233.441163121</v>
       </c>
       <c r="L3" t="n">
-        <v>619769.914808304</v>
+        <v>2870133.45209189</v>
       </c>
       <c r="M3" t="n">
-        <v>75805408.6920599</v>
+        <v>523175307.957565</v>
       </c>
       <c r="N3" t="n">
-        <v>30961105.2412657</v>
+        <v>146990164.089588</v>
       </c>
       <c r="O3" t="n">
-        <v>18403661.9567898</v>
+        <v>80036868.652569</v>
       </c>
       <c r="P3" t="n">
-        <v>70258883.4097833</v>
+        <v>347342207.315612</v>
       </c>
       <c r="Q3" t="n">
-        <v>146064292.101843</v>
+        <v>870517515.273177</v>
       </c>
       <c r="R3" t="n">
-        <v>16286143.0105676</v>
+        <v>127969385.202654</v>
       </c>
       <c r="S3" t="n">
-        <v>6110360.43879114</v>
+        <v>12481612.9534102</v>
       </c>
       <c r="T3" t="n">
-        <v>14783755.7729367</v>
+        <v>107833561.620045</v>
       </c>
       <c r="U3" t="n">
-        <v>777985.650559427</v>
+        <v>579644.645139318</v>
       </c>
       <c r="V3" t="n">
-        <v>828340.3370919781</v>
+        <v>4415210.58797944</v>
       </c>
       <c r="W3" t="n">
-        <v>7251456.06416638</v>
+        <v>61492484.4094094</v>
       </c>
       <c r="X3" t="n">
-        <v>256964.222222002</v>
+        <v>959658.240954675</v>
       </c>
       <c r="Y3" t="n">
-        <v>361186.748743006</v>
+        <v>9860567.80322971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5766340.02906594</v>
+        <v>18420864.8340612</v>
       </c>
       <c r="C4" t="n">
-        <v>5144507.70159008</v>
+        <v>26731868.6575352</v>
       </c>
       <c r="D4" t="n">
-        <v>3534741.45279987</v>
+        <v>7930998.97595036</v>
       </c>
       <c r="E4" t="n">
-        <v>3620578.94984873</v>
+        <v>12445402.3733629</v>
       </c>
       <c r="F4" t="n">
-        <v>4889866.05271194</v>
+        <v>7669438.95665267</v>
       </c>
       <c r="G4" t="n">
-        <v>5591783.74556209</v>
+        <v>45468199.1491998</v>
       </c>
       <c r="H4" t="n">
-        <v>11066662.7611634</v>
+        <v>46824986.2384642</v>
       </c>
       <c r="I4" t="n">
-        <v>49306843.9490017</v>
+        <v>137104789.378367</v>
       </c>
       <c r="J4" t="n">
-        <v>42836257.1509129</v>
+        <v>88116118.15728021</v>
       </c>
       <c r="K4" t="n">
-        <v>7365134.60219632</v>
+        <v>9297988.504086159</v>
       </c>
       <c r="L4" t="n">
-        <v>1371664.11928667</v>
+        <v>4323132.53683338</v>
       </c>
       <c r="M4" t="n">
-        <v>193915206.595385</v>
+        <v>704844446.547086</v>
       </c>
       <c r="N4" t="n">
-        <v>37220936.4741839</v>
+        <v>257101763.149234</v>
       </c>
       <c r="O4" t="n">
-        <v>40680122.3968609</v>
+        <v>124296303.695144</v>
       </c>
       <c r="P4" t="n">
-        <v>156696279.494582</v>
+        <v>488347163.246759</v>
       </c>
       <c r="Q4" t="n">
-        <v>350611486.089967</v>
+        <v>1193191609.79384</v>
       </c>
       <c r="R4" t="n">
-        <v>37461067.3195544</v>
+        <v>194586432.653253</v>
       </c>
       <c r="S4" t="n">
-        <v>13247314.043899</v>
+        <v>-384623.458305275</v>
       </c>
       <c r="T4" t="n">
-        <v>65547906.5796382</v>
+        <v>107333719.860686</v>
       </c>
       <c r="U4" t="n">
-        <v>2155261.68414102</v>
+        <v>534159.001659559</v>
       </c>
       <c r="V4" t="n">
-        <v>2583349.05380134</v>
+        <v>3723803.49669373</v>
       </c>
       <c r="W4" t="n">
-        <v>10018543.3563986</v>
+        <v>85355295.2195245</v>
       </c>
       <c r="X4" t="n">
-        <v>482062.572729936</v>
+        <v>1253890.13249673</v>
       </c>
       <c r="Y4" t="n">
-        <v>720542.094619645</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4105473.56005747</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9942864.767915171</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3797406.65114685</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4595095.03450046</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1369374.9165555</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8333011.71428967</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12111215.5970087</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46287539.4847024</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59857020.2367151</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6241333.56806496</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2625754.60002473</v>
-      </c>
-      <c r="M5" t="n">
-        <v>214575371.648912</v>
-      </c>
-      <c r="N5" t="n">
-        <v>51981000.1016928</v>
-      </c>
-      <c r="O5" t="n">
-        <v>53504991.3739698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>210037536.481675</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>424612908.130587</v>
-      </c>
-      <c r="R5" t="n">
-        <v>30896051.673226</v>
-      </c>
-      <c r="S5" t="n">
-        <v>17670207.3333332</v>
-      </c>
-      <c r="T5" t="n">
-        <v>86881337.6726796</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1515689.42251721</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2439405.39318473</v>
-      </c>
-      <c r="W5" t="n">
-        <v>17250417.2020149</v>
-      </c>
-      <c r="X5" t="n">
-        <v>557256.555791571</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2650461.27119658</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8831213.2465044</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17162196.3741215</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11463047.4512121</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9386463.54252704</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2889553.57883848</v>
-      </c>
-      <c r="G6" t="n">
-        <v>18591085.9326516</v>
-      </c>
-      <c r="H6" t="n">
-        <v>23534924.3670249</v>
-      </c>
-      <c r="I6" t="n">
-        <v>75779844.8372442</v>
-      </c>
-      <c r="J6" t="n">
-        <v>90207336.8543497</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11218001.9933007</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4502406.88036279</v>
-      </c>
-      <c r="M6" t="n">
-        <v>378202315.471045</v>
-      </c>
-      <c r="N6" t="n">
-        <v>104106145.574784</v>
-      </c>
-      <c r="O6" t="n">
-        <v>57375756.1209184</v>
-      </c>
-      <c r="P6" t="n">
-        <v>283141352.715529</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>661343668.186574</v>
-      </c>
-      <c r="R6" t="n">
-        <v>59453606.343564</v>
-      </c>
-      <c r="S6" t="n">
-        <v>22632647.4705041</v>
-      </c>
-      <c r="T6" t="n">
-        <v>99026803.5493221</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2393010.64483581</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5495407.08676304</v>
-      </c>
-      <c r="W6" t="n">
-        <v>31965144.1112881</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1107051.50734572</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4222020.71911074</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12206073.8782695</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20189511.7173354</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8469781.90628293</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9867406.43889017</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5971732.48040487</v>
-      </c>
-      <c r="G7" t="n">
-        <v>26867495.5710789</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29892261.3745437</v>
-      </c>
-      <c r="I7" t="n">
-        <v>94154491.5683931</v>
-      </c>
-      <c r="J7" t="n">
-        <v>97820235.2397445</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9589233.441163121</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2870133.45209189</v>
-      </c>
-      <c r="M7" t="n">
-        <v>523175307.957565</v>
-      </c>
-      <c r="N7" t="n">
-        <v>146990164.089588</v>
-      </c>
-      <c r="O7" t="n">
-        <v>80036868.652569</v>
-      </c>
-      <c r="P7" t="n">
-        <v>347342207.315612</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>870517515.273177</v>
-      </c>
-      <c r="R7" t="n">
-        <v>127969385.202654</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12481612.9534102</v>
-      </c>
-      <c r="T7" t="n">
-        <v>107833561.620045</v>
-      </c>
-      <c r="U7" t="n">
-        <v>579644.645139318</v>
-      </c>
-      <c r="V7" t="n">
-        <v>4415210.58797944</v>
-      </c>
-      <c r="W7" t="n">
-        <v>61492484.4094094</v>
-      </c>
-      <c r="X7" t="n">
-        <v>959658.240954675</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9860567.80322971</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18420864.8340612</v>
-      </c>
-      <c r="C8" t="n">
-        <v>26731868.6575352</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7930998.97595036</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12445402.3733629</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7669438.95665267</v>
-      </c>
-      <c r="G8" t="n">
-        <v>45468199.1491998</v>
-      </c>
-      <c r="H8" t="n">
-        <v>46824986.2384642</v>
-      </c>
-      <c r="I8" t="n">
-        <v>137104789.378367</v>
-      </c>
-      <c r="J8" t="n">
-        <v>88116118.15728021</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9297988.504086159</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4323132.53683338</v>
-      </c>
-      <c r="M8" t="n">
-        <v>704844446.547086</v>
-      </c>
-      <c r="N8" t="n">
-        <v>257101763.149234</v>
-      </c>
-      <c r="O8" t="n">
-        <v>124296303.695144</v>
-      </c>
-      <c r="P8" t="n">
-        <v>488347163.246759</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1193191609.79384</v>
-      </c>
-      <c r="R8" t="n">
-        <v>194586432.653253</v>
-      </c>
-      <c r="S8" t="n">
-        <v>-384623.458305275</v>
-      </c>
-      <c r="T8" t="n">
-        <v>107333719.860686</v>
-      </c>
-      <c r="U8" t="n">
-        <v>534159.001659559</v>
-      </c>
-      <c r="V8" t="n">
-        <v>3723803.49669373</v>
-      </c>
-      <c r="W8" t="n">
-        <v>85355295.2195245</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1253890.13249673</v>
-      </c>
-      <c r="Y8" t="n">
         <v>15057078.2816651</v>
       </c>
     </row>
